--- a/Semantle_AI/Data/semantle-graph.xlsx
+++ b/Semantle_AI/Data/semantle-graph.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bardamri/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bardamri/PycharmProjects/SE_Project_Semantle/Semantle_AI/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFCCF14-D53F-8940-97D8-47761D03F11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5ECE10-514C-0B4F-BD29-16C2A30308FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="1" xr2:uid="{2BD9F7E4-3864-E14D-AD8C-55EBE9E46C48}"/>
   </bookViews>
@@ -204,9 +204,6 @@
     <t>Guesses</t>
   </si>
   <si>
-    <t>Max value</t>
-  </si>
-  <si>
     <t>ultimately</t>
   </si>
   <si>
@@ -340,6 +337,9 @@
   </si>
   <si>
     <t>VOI5</t>
+  </si>
+  <si>
+    <t>Prob max value</t>
   </si>
 </sst>
 </file>
@@ -2003,7 +2003,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Max value</c:v>
+                  <c:v>Prob max value</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16301,13 +16301,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC27A21-75C4-441F-8A71-20F85272D118}">
   <dimension ref="A1:AF43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.1640625" customWidth="1"/>
     <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
@@ -16324,22 +16324,22 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>47</v>
@@ -16348,54 +16348,54 @@
         <v>54</v>
       </c>
       <c r="K1" s="3" t="str">
-        <f>A1</f>
-        <v>Max value</v>
+        <f t="shared" ref="K1:P1" si="0">A1</f>
+        <v>Prob max value</v>
       </c>
       <c r="L1" s="2" t="str">
-        <f>B1</f>
+        <f t="shared" si="0"/>
         <v>VOI2</v>
       </c>
       <c r="M1" s="5" t="str">
-        <f>C1</f>
+        <f t="shared" si="0"/>
         <v>VOI3</v>
       </c>
       <c r="N1" s="5" t="str">
-        <f>D1</f>
+        <f t="shared" si="0"/>
         <v>VOI5</v>
       </c>
       <c r="O1" s="5" t="str">
-        <f>E1</f>
+        <f t="shared" si="0"/>
         <v>Prob</v>
       </c>
       <c r="P1" s="5" t="str">
-        <f>F1</f>
+        <f t="shared" si="0"/>
         <v>Random</v>
       </c>
       <c r="R1" t="s">
         <v>54</v>
       </c>
       <c r="S1" s="3" t="str">
-        <f>A1</f>
-        <v>Max value</v>
+        <f t="shared" ref="S1:X1" si="1">A1</f>
+        <v>Prob max value</v>
       </c>
       <c r="T1" s="2" t="str">
-        <f>B1</f>
+        <f t="shared" si="1"/>
         <v>VOI2</v>
       </c>
       <c r="U1" s="5" t="str">
-        <f>C1</f>
+        <f t="shared" si="1"/>
         <v>VOI3</v>
       </c>
       <c r="V1" s="5" t="str">
-        <f>D1</f>
+        <f t="shared" si="1"/>
         <v>VOI5</v>
       </c>
       <c r="W1" s="5" t="str">
-        <f>E1</f>
+        <f t="shared" si="1"/>
         <v>Prob</v>
       </c>
       <c r="X1" s="5" t="str">
-        <f>F1</f>
+        <f t="shared" si="1"/>
         <v>Random</v>
       </c>
     </row>
@@ -16419,40 +16419,40 @@
         <v>1949</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2">
         <v>100</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K43" si="0">COUNTIF(A$2:A$41,_xlfn.CONCAT("&lt;",$J2))</f>
+        <f t="shared" ref="K2:K43" si="2">COUNTIF(A$2:A$41,_xlfn.CONCAT("&lt;",$J2))</f>
         <v>2</v>
       </c>
       <c r="L2">
-        <f>COUNTIF(B$2:B$41,_xlfn.CONCAT("&lt;",$J2))</f>
+        <f t="shared" ref="L2:P3" si="3">COUNTIF(B$2:B$41,_xlfn.CONCAT("&lt;",$J2))</f>
         <v>1</v>
       </c>
       <c r="M2">
-        <f>COUNTIF(C$2:C$41,_xlfn.CONCAT("&lt;",$J2))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N2">
-        <f>COUNTIF(D$2:D$41,_xlfn.CONCAT("&lt;",$J2))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O2">
-        <f>COUNTIF(E$2:E$41,_xlfn.CONCAT("&lt;",$J2))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P2">
-        <f>COUNTIF(F$2:F$41,_xlfn.CONCAT("&lt;",$J2))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R2">
         <v>100</v>
       </c>
       <c r="S2" s="6">
-        <f t="shared" ref="S2:S43" si="1">K2/40</f>
+        <f t="shared" ref="S2:S43" si="4">K2/40</f>
         <v>0.05</v>
       </c>
       <c r="T2" s="6">
@@ -16496,34 +16496,34 @@
         <v>3010</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3">
         <f>J2+100</f>
         <v>200</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L3">
-        <f>COUNTIF(B$2:B$41,_xlfn.CONCAT("&lt;",$J3))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M3">
-        <f>COUNTIF(C$2:C$41,_xlfn.CONCAT("&lt;",$J3))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N3">
-        <f>COUNTIF(D$2:D$41,_xlfn.CONCAT("&lt;",$J3))</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O3">
-        <f>COUNTIF(E$2:E$41,_xlfn.CONCAT("&lt;",$J3))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="P3">
-        <f>COUNTIF(F$2:F$41,_xlfn.CONCAT("&lt;",$J3))</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="R3">
@@ -16531,7 +16531,7 @@
         <v>200</v>
       </c>
       <c r="S3" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="T3" s="6">
@@ -16547,7 +16547,7 @@
         <v>0.1</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" ref="W3:W43" si="2">O3/40</f>
+        <f t="shared" ref="W3:W43" si="5">O3/40</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="X3" s="6">
@@ -16575,30 +16575,30 @@
         <v>201</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J43" si="3">J3+100</f>
+        <f t="shared" ref="J4:J43" si="6">J3+100</f>
         <v>300</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L43" si="4">COUNTIF(B$2:B$41,_xlfn.CONCAT("&lt;",$J4))</f>
+        <f t="shared" ref="L4:L43" si="7">COUNTIF(B$2:B$41,_xlfn.CONCAT("&lt;",$J4))</f>
         <v>2</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M25" si="5">COUNTIF(C$2:C$41,_xlfn.CONCAT("&lt;",$J4))</f>
+        <f t="shared" ref="M4:M25" si="8">COUNTIF(C$2:C$41,_xlfn.CONCAT("&lt;",$J4))</f>
         <v>3</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N43" si="6">COUNTIF(D$2:D$41,_xlfn.CONCAT("&lt;",$J4))</f>
+        <f t="shared" ref="N4:N43" si="9">COUNTIF(D$2:D$41,_xlfn.CONCAT("&lt;",$J4))</f>
         <v>6</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O43" si="7">COUNTIF(E$2:E$41,_xlfn.CONCAT("&lt;",$J4))</f>
+        <f t="shared" ref="O4:O43" si="10">COUNTIF(E$2:E$41,_xlfn.CONCAT("&lt;",$J4))</f>
         <v>4</v>
       </c>
       <c r="P4">
@@ -16606,27 +16606,27 @@
         <v>6</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R41" si="8">R3+100</f>
+        <f t="shared" ref="R4:R41" si="11">R3+100</f>
         <v>300</v>
       </c>
       <c r="S4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="T4" s="6">
-        <f>L4/40</f>
+        <f t="shared" ref="T4:T43" si="12">L4/40</f>
         <v>0.05</v>
       </c>
       <c r="U4" s="6">
-        <f t="shared" ref="U4:U29" si="9">M4/40</f>
+        <f t="shared" ref="U4:U29" si="13">M4/40</f>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="V4" s="6">
-        <f t="shared" ref="V4:V43" si="10">N4/40</f>
+        <f t="shared" ref="V4:V43" si="14">N4/40</f>
         <v>0.15</v>
       </c>
       <c r="W4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
       <c r="X4" s="6">
@@ -16654,62 +16654,62 @@
         <v>1651</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="L5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P43" si="15">COUNTIF(F$2:F$41,_xlfn.CONCAT("&lt;",$J5))</f>
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="S5" s="6">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="M5">
+        <v>0.15</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="13"/>
+        <v>0.15</v>
+      </c>
+      <c r="V5" s="6">
+        <f t="shared" si="14"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="W5" s="6">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P43" si="11">COUNTIF(F$2:F$41,_xlfn.CONCAT("&lt;",$J5))</f>
-        <v>8</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="S5" s="6">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="T5" s="6">
-        <f>L5/40</f>
-        <v>0.1</v>
-      </c>
-      <c r="U5" s="6">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
-      </c>
-      <c r="V5" s="6">
-        <f t="shared" si="10"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="W5" s="6">
-        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="X5" s="6">
-        <f t="shared" ref="X5:X43" si="12">P5/40</f>
+        <f t="shared" ref="X5:X43" si="16">P5/40</f>
         <v>0.2</v>
       </c>
     </row>
@@ -16733,62 +16733,62 @@
         <v>2576</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L6">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="S6" s="6">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="M6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="13"/>
+        <v>0.15</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="14"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="W6" s="6">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="8"/>
-        <v>500</v>
-      </c>
-      <c r="S6" s="6">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="T6" s="6">
-        <f>L6/40</f>
-        <v>0.15</v>
-      </c>
-      <c r="U6" s="6">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
-      </c>
-      <c r="V6" s="6">
-        <f t="shared" si="10"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="W6" s="6">
-        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="X6" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
     </row>
@@ -16812,62 +16812,62 @@
         <v>3678</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L7">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="11"/>
+        <v>600</v>
+      </c>
+      <c r="S7" s="6">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="M7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="13"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
+      <c r="W7" s="6">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="8"/>
-        <v>600</v>
-      </c>
-      <c r="S7" s="6">
-        <f t="shared" si="1"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="T7" s="6">
-        <f>L7/40</f>
-        <v>0.2</v>
-      </c>
-      <c r="U7" s="6">
-        <f t="shared" si="9"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="V7" s="6">
-        <f t="shared" si="10"/>
-        <v>0.2</v>
-      </c>
-      <c r="W7" s="6">
-        <f t="shared" si="2"/>
-        <v>0.22500000000000001</v>
-      </c>
       <c r="X7" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.22500000000000001</v>
       </c>
     </row>
@@ -16891,62 +16891,62 @@
         <v>1777</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>700</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L8">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="S8" s="6">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="M8">
+        <v>0.25</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="14"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="W8" s="6">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="8"/>
-        <v>700</v>
-      </c>
-      <c r="S8" s="6">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="T8" s="6">
-        <f>L8/40</f>
-        <v>0.2</v>
-      </c>
-      <c r="U8" s="6">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
-      </c>
-      <c r="V8" s="6">
-        <f t="shared" si="10"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="W8" s="6">
-        <f t="shared" si="2"/>
-        <v>0.22500000000000001</v>
-      </c>
       <c r="X8" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.22500000000000001</v>
       </c>
     </row>
@@ -16970,62 +16970,62 @@
         <v>2828</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="L9">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
+      <c r="S9" s="6">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="M9">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="12"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="13"/>
+        <v>0.35</v>
+      </c>
+      <c r="V9" s="6">
+        <f t="shared" si="14"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="W9" s="6">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="8"/>
-        <v>800</v>
-      </c>
-      <c r="S9" s="6">
-        <f t="shared" si="1"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="T9" s="6">
-        <f>L9/40</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="U9" s="6">
-        <f t="shared" si="9"/>
-        <v>0.35</v>
-      </c>
-      <c r="V9" s="6">
-        <f t="shared" si="10"/>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="W9" s="6">
-        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="X9" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.27500000000000002</v>
       </c>
     </row>
@@ -17049,62 +17049,62 @@
         <v>3350</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L10">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="11"/>
+        <v>900</v>
+      </c>
+      <c r="S10" s="6">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="M10">
+        <v>0.3</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="12"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="13"/>
+        <v>0.375</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="14"/>
+        <v>0.3</v>
+      </c>
+      <c r="W10" s="6">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="8"/>
-        <v>900</v>
-      </c>
-      <c r="S10" s="6">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="T10" s="6">
-        <f>L10/40</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="U10" s="6">
-        <f t="shared" si="9"/>
-        <v>0.375</v>
-      </c>
-      <c r="V10" s="6">
-        <f t="shared" si="10"/>
-        <v>0.3</v>
-      </c>
-      <c r="W10" s="6">
-        <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
       <c r="X10" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
     </row>
@@ -17128,62 +17128,62 @@
         <v>362</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L11">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="11"/>
+        <v>1000</v>
+      </c>
+      <c r="S11" s="6">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="M11">
+        <v>0.3</v>
+      </c>
+      <c r="T11" s="6">
+        <f t="shared" si="12"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" si="13"/>
+        <v>0.45</v>
+      </c>
+      <c r="V11" s="6">
+        <f t="shared" si="14"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="W11" s="6">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-      <c r="S11" s="6">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="T11" s="6">
-        <f>L11/40</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="U11" s="6">
-        <f t="shared" si="9"/>
-        <v>0.45</v>
-      </c>
-      <c r="V11" s="6">
-        <f t="shared" si="10"/>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="W11" s="6">
-        <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
       <c r="X11" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
     </row>
@@ -17207,62 +17207,62 @@
         <v>1787</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1100</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="L12">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="11"/>
+        <v>1100</v>
+      </c>
+      <c r="S12" s="6">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="M12">
+        <v>0.3</v>
+      </c>
+      <c r="T12" s="6">
+        <f t="shared" si="12"/>
+        <v>0.35</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="13"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="W12" s="6">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="8"/>
-        <v>1100</v>
-      </c>
-      <c r="S12" s="6">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="T12" s="6">
-        <f>L12/40</f>
-        <v>0.35</v>
-      </c>
-      <c r="U12" s="6">
-        <f t="shared" si="9"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="V12" s="6">
-        <f t="shared" si="10"/>
-        <v>0.35</v>
-      </c>
-      <c r="W12" s="6">
-        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="X12" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
     </row>
@@ -17286,62 +17286,62 @@
         <v>3105</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="L13">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="11"/>
+        <v>1200</v>
+      </c>
+      <c r="S13" s="6">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="M13">
+        <v>0.375</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="12"/>
+        <v>0.375</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" si="13"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="W13" s="6">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="8"/>
-        <v>1200</v>
-      </c>
-      <c r="S13" s="6">
-        <f t="shared" si="1"/>
-        <v>0.375</v>
-      </c>
-      <c r="T13" s="6">
-        <f>L13/40</f>
-        <v>0.375</v>
-      </c>
-      <c r="U13" s="6">
-        <f t="shared" si="9"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="V13" s="6">
-        <f t="shared" si="10"/>
-        <v>0.4</v>
-      </c>
-      <c r="W13" s="6">
-        <f t="shared" si="2"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="X13" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.3</v>
       </c>
     </row>
@@ -17365,62 +17365,62 @@
         <v>2778</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1300</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="L14">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="11"/>
+        <v>1300</v>
+      </c>
+      <c r="S14" s="6">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="M14">
+        <v>0.45</v>
+      </c>
+      <c r="T14" s="6">
+        <f t="shared" si="12"/>
+        <v>0.375</v>
+      </c>
+      <c r="U14" s="6">
+        <f t="shared" si="13"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="V14" s="6">
+        <f t="shared" si="14"/>
+        <v>0.45</v>
+      </c>
+      <c r="W14" s="6">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="8"/>
-        <v>1300</v>
-      </c>
-      <c r="S14" s="6">
-        <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
-      <c r="T14" s="6">
-        <f>L14/40</f>
-        <v>0.375</v>
-      </c>
-      <c r="U14" s="6">
-        <f t="shared" si="9"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="V14" s="6">
-        <f t="shared" si="10"/>
-        <v>0.45</v>
-      </c>
-      <c r="W14" s="6">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
-      </c>
       <c r="X14" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.32500000000000001</v>
       </c>
     </row>
@@ -17444,62 +17444,62 @@
         <v>3860</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1400</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="O15">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
+      <c r="M15">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
       <c r="P15">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="8"/>
         <v>1400</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="T15" s="6">
-        <f>L15/40</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="U15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="V15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="W15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.32500000000000001</v>
       </c>
     </row>
@@ -17523,62 +17523,62 @@
         <v>2963</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="L16">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="11"/>
+        <v>1500</v>
+      </c>
+      <c r="S16" s="6">
         <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="M16">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="T16" s="6">
+        <f t="shared" si="12"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="U16" s="6">
+        <f t="shared" si="13"/>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="V16" s="6">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="W16" s="6">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="8"/>
-        <v>1500</v>
-      </c>
-      <c r="S16" s="6">
-        <f t="shared" si="1"/>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="T16" s="6">
-        <f>L16/40</f>
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="U16" s="6">
-        <f t="shared" si="9"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="V16" s="6">
-        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
-      <c r="W16" s="6">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
       <c r="X16" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.35</v>
       </c>
     </row>
@@ -17602,30 +17602,30 @@
         <v>1419</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="M17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="N17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="O17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="P17">
@@ -17633,31 +17633,31 @@
         <v>14</v>
       </c>
       <c r="R17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1600</v>
       </c>
       <c r="S17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="T17" s="6">
-        <f>L17/40</f>
+        <f t="shared" si="12"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="U17" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="W17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="X17" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.35</v>
       </c>
     </row>
@@ -17681,30 +17681,30 @@
         <v>3599</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1700</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="M18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="N18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="O18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="P18">
@@ -17712,31 +17712,31 @@
         <v>17</v>
       </c>
       <c r="R18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1700</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="T18" s="6">
-        <f>L18/40</f>
+        <f t="shared" si="12"/>
         <v>0.625</v>
       </c>
       <c r="U18" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
       <c r="V18" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="W18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="X18" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.42499999999999999</v>
       </c>
     </row>
@@ -17760,30 +17760,30 @@
         <v>125</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="M19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="N19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="O19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="P19">
@@ -17791,31 +17791,31 @@
         <v>19</v>
       </c>
       <c r="R19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1800</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="T19" s="6">
-        <f>L19/40</f>
+        <f t="shared" si="12"/>
         <v>0.65</v>
       </c>
       <c r="U19" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="V19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="W19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
       <c r="X19" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.47499999999999998</v>
       </c>
     </row>
@@ -17839,62 +17839,62 @@
         <v>1616</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1900</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="L20">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ref="P20:P22" si="17">COUNTIF(F$2:F$41,_xlfn.CONCAT("&lt;",$J20))</f>
+        <v>19</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="11"/>
+        <v>1900</v>
+      </c>
+      <c r="S20" s="6">
         <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="M20">
+        <v>0.625</v>
+      </c>
+      <c r="T20" s="6">
+        <f t="shared" si="12"/>
+        <v>0.65</v>
+      </c>
+      <c r="U20" s="6">
+        <f t="shared" si="13"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V20" s="6">
+        <f t="shared" si="14"/>
+        <v>0.6</v>
+      </c>
+      <c r="W20" s="6">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ref="P20:P22" si="13">COUNTIF(F$2:F$41,_xlfn.CONCAT("&lt;",$J20))</f>
-        <v>19</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="8"/>
-        <v>1900</v>
-      </c>
-      <c r="S20" s="6">
-        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
-      <c r="T20" s="6">
-        <f>L20/40</f>
-        <v>0.65</v>
-      </c>
-      <c r="U20" s="6">
-        <f t="shared" si="9"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="V20" s="6">
-        <f t="shared" si="10"/>
-        <v>0.6</v>
-      </c>
-      <c r="W20" s="6">
-        <f t="shared" si="2"/>
-        <v>0.625</v>
-      </c>
       <c r="X20" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.47499999999999998</v>
       </c>
     </row>
@@ -17918,62 +17918,62 @@
         <v>2958</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="L21">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="11"/>
+        <v>2000</v>
+      </c>
+      <c r="S21" s="6">
         <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="M21">
+        <v>0.625</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" si="12"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" si="13"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="W21" s="6">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="8"/>
-        <v>2000</v>
-      </c>
-      <c r="S21" s="6">
-        <f t="shared" si="1"/>
-        <v>0.625</v>
-      </c>
-      <c r="T21" s="6">
-        <f>L21/40</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="U21" s="6">
-        <f t="shared" si="9"/>
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="V21" s="6">
-        <f t="shared" si="10"/>
-        <v>0.7</v>
-      </c>
-      <c r="W21" s="6">
-        <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
       <c r="X21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
     </row>
@@ -17997,62 +17997,62 @@
         <v>305</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2100</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="L22">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="11"/>
+        <v>2100</v>
+      </c>
+      <c r="S22" s="6">
         <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="M22">
+        <v>0.65</v>
+      </c>
+      <c r="T22" s="6">
+        <f t="shared" si="12"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="U22" s="6">
+        <f t="shared" si="13"/>
+        <v>0.625</v>
+      </c>
+      <c r="V22" s="6">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="W22" s="6">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="13"/>
-        <v>20</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="8"/>
-        <v>2100</v>
-      </c>
-      <c r="S22" s="6">
-        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
-      <c r="T22" s="6">
-        <f>L22/40</f>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="U22" s="6">
-        <f t="shared" si="9"/>
-        <v>0.625</v>
-      </c>
-      <c r="V22" s="6">
-        <f t="shared" si="10"/>
-        <v>0.7</v>
-      </c>
-      <c r="W22" s="6">
-        <f t="shared" si="2"/>
-        <v>0.65</v>
-      </c>
       <c r="X22" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
     </row>
@@ -18076,62 +18076,62 @@
         <v>2654</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2200</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="L23">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="11"/>
+        <v>2200</v>
+      </c>
+      <c r="S23" s="6">
         <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="M23">
+        <v>0.7</v>
+      </c>
+      <c r="T23" s="6">
+        <f t="shared" si="12"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="U23" s="6">
+        <f t="shared" si="13"/>
+        <v>0.625</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="W23" s="6">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="8"/>
-        <v>2200</v>
-      </c>
-      <c r="S23" s="6">
-        <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="T23" s="6">
-        <f>L23/40</f>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="U23" s="6">
-        <f t="shared" si="9"/>
-        <v>0.625</v>
-      </c>
-      <c r="V23" s="6">
-        <f t="shared" si="10"/>
-        <v>0.7</v>
-      </c>
-      <c r="W23" s="6">
-        <f t="shared" si="2"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="X23" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
     </row>
@@ -18155,62 +18155,62 @@
         <v>3167</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2300</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L24">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="11"/>
+        <v>2300</v>
+      </c>
+      <c r="S24" s="6">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="M24">
+        <v>0.75</v>
+      </c>
+      <c r="T24" s="6">
+        <f t="shared" si="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="U24" s="6">
+        <f t="shared" si="13"/>
+        <v>0.625</v>
+      </c>
+      <c r="V24" s="6">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="W24" s="6">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="8"/>
-        <v>2300</v>
-      </c>
-      <c r="S24" s="6">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="T24" s="6">
-        <f>L24/40</f>
-        <v>0.75</v>
-      </c>
-      <c r="U24" s="6">
-        <f t="shared" si="9"/>
-        <v>0.625</v>
-      </c>
-      <c r="V24" s="6">
-        <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
-      <c r="W24" s="6">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
       <c r="X24" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
     </row>
@@ -18234,62 +18234,62 @@
         <v>276</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2400</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="L25">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="11"/>
+        <v>2400</v>
+      </c>
+      <c r="S25" s="6">
         <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="M25">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="T25" s="6">
+        <f t="shared" si="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="U25" s="6">
+        <f t="shared" si="13"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="V25" s="6">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="W25" s="6">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="8"/>
-        <v>2400</v>
-      </c>
-      <c r="S25" s="6">
-        <f t="shared" si="1"/>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="T25" s="6">
-        <f>L25/40</f>
-        <v>0.75</v>
-      </c>
-      <c r="U25" s="6">
-        <f t="shared" si="9"/>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="V25" s="6">
-        <f t="shared" si="10"/>
         <v>0.7</v>
       </c>
-      <c r="W25" s="6">
-        <f t="shared" si="2"/>
-        <v>0.7</v>
-      </c>
       <c r="X25" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
     </row>
@@ -18313,62 +18313,62 @@
         <v>129</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2500</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="L26">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26:M43" si="18">COUNTIF(C$2:C$41,_xlfn.CONCAT("&lt;",$J26))</f>
+        <v>28</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="11"/>
+        <v>2500</v>
+      </c>
+      <c r="S26" s="6">
         <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ref="M26:M43" si="14">COUNTIF(C$2:C$41,_xlfn.CONCAT("&lt;",$J26))</f>
-        <v>28</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="8"/>
-        <v>2500</v>
-      </c>
-      <c r="S26" s="6">
-        <f t="shared" si="1"/>
         <v>0.77500000000000002</v>
       </c>
       <c r="T26" s="6">
-        <f>L26/40</f>
+        <f t="shared" si="12"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="U26" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="X26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
     </row>
@@ -18392,89 +18392,89 @@
         <v>3681</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2600</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="L27">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="11"/>
+        <v>2600</v>
+      </c>
+      <c r="S27" s="6">
         <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="M27">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="T27" s="6">
+        <f t="shared" si="12"/>
+        <v>0.85</v>
+      </c>
+      <c r="U27" s="6">
+        <f t="shared" si="13"/>
+        <v>0.7</v>
+      </c>
+      <c r="V27" s="6">
         <f t="shared" si="14"/>
-        <v>28</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="8"/>
-        <v>2600</v>
-      </c>
-      <c r="S27" s="6">
-        <f t="shared" si="1"/>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="T27" s="6">
-        <f>L27/40</f>
-        <v>0.85</v>
-      </c>
-      <c r="U27" s="6">
-        <f t="shared" si="9"/>
-        <v>0.7</v>
-      </c>
-      <c r="V27" s="6">
-        <f t="shared" si="10"/>
         <v>0.72499999999999998</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="X27" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="Z27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AA27" s="3" t="str">
-        <f>A1</f>
-        <v>Max value</v>
+        <f t="shared" ref="AA27:AF27" si="19">A1</f>
+        <v>Prob max value</v>
       </c>
       <c r="AB27" s="2" t="str">
-        <f>B1</f>
+        <f t="shared" si="19"/>
         <v>VOI2</v>
       </c>
       <c r="AC27" s="5" t="str">
-        <f>C1</f>
+        <f t="shared" si="19"/>
         <v>VOI3</v>
       </c>
       <c r="AD27" s="5" t="str">
-        <f>D1</f>
+        <f t="shared" si="19"/>
         <v>VOI5</v>
       </c>
       <c r="AE27" s="5" t="str">
-        <f>E1</f>
+        <f t="shared" si="19"/>
         <v>Prob</v>
       </c>
       <c r="AF27" s="5" t="str">
-        <f>F1</f>
+        <f t="shared" si="19"/>
         <v>Random</v>
       </c>
     </row>
@@ -18498,86 +18498,86 @@
         <v>532</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2700</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="L28">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="11"/>
+        <v>2700</v>
+      </c>
+      <c r="S28" s="6">
         <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="M28">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="T28" s="6">
+        <f t="shared" si="12"/>
+        <v>0.85</v>
+      </c>
+      <c r="U28" s="6">
+        <f t="shared" si="13"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="V28" s="6">
         <f t="shared" si="14"/>
-        <v>29</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="8"/>
-        <v>2700</v>
-      </c>
-      <c r="S28" s="6">
-        <f t="shared" si="1"/>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="T28" s="6">
-        <f>L28/40</f>
-        <v>0.85</v>
-      </c>
-      <c r="U28" s="6">
-        <f t="shared" si="9"/>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="V28" s="6">
-        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="X28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
       <c r="AA28">
-        <f>AVERAGE(A2:A41)</f>
+        <f t="shared" ref="AA28:AF28" si="20">AVERAGE(A2:A41)</f>
         <v>1720.7750000000001</v>
       </c>
       <c r="AB28">
-        <f>AVERAGE(B2:B41)</f>
+        <f t="shared" si="20"/>
         <v>1617.625</v>
       </c>
       <c r="AC28">
-        <f>AVERAGE(C2:C41)</f>
+        <f t="shared" si="20"/>
         <v>1770.65</v>
       </c>
       <c r="AD28">
-        <f>AVERAGE(D2:D41)</f>
+        <f t="shared" si="20"/>
         <v>1636.95</v>
       </c>
       <c r="AE28">
-        <f>AVERAGE(E2:E41)</f>
+        <f t="shared" si="20"/>
         <v>1681.325</v>
       </c>
       <c r="AF28">
-        <f>AVERAGE(F2:F41)</f>
+        <f t="shared" si="20"/>
         <v>1985.2</v>
       </c>
     </row>
@@ -18601,62 +18601,62 @@
         <v>156</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2800</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="L29">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="11"/>
+        <v>2800</v>
+      </c>
+      <c r="S29" s="6">
         <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="M29">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="T29" s="6">
+        <f t="shared" si="12"/>
+        <v>0.85</v>
+      </c>
+      <c r="U29" s="6">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+      <c r="V29" s="6">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="11"/>
-        <v>26</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="8"/>
-        <v>2800</v>
-      </c>
-      <c r="S29" s="6">
-        <f t="shared" si="1"/>
         <v>0.77500000000000002</v>
       </c>
-      <c r="T29" s="6">
-        <f>L29/40</f>
-        <v>0.85</v>
-      </c>
-      <c r="U29" s="6">
-        <f t="shared" si="9"/>
-        <v>0.75</v>
-      </c>
-      <c r="V29" s="6">
-        <f t="shared" si="10"/>
-        <v>0.77500000000000002</v>
-      </c>
       <c r="W29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
       <c r="X29" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.65</v>
       </c>
     </row>
@@ -18680,62 +18680,62 @@
         <v>1275</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2900</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="L30">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="9"/>
+        <v>32</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="11"/>
+        <v>2900</v>
+      </c>
+      <c r="S30" s="6">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="M30">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="T30" s="6">
+        <f t="shared" si="12"/>
+        <v>0.875</v>
+      </c>
+      <c r="U30" s="6">
+        <f t="shared" ref="U30:U43" si="21">M30/40</f>
+        <v>0.75</v>
+      </c>
+      <c r="V30" s="6">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="8"/>
-        <v>2900</v>
-      </c>
-      <c r="S30" s="6">
-        <f t="shared" si="1"/>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="T30" s="6">
-        <f>L30/40</f>
-        <v>0.875</v>
-      </c>
-      <c r="U30" s="6">
-        <f>M30/40</f>
-        <v>0.75</v>
-      </c>
-      <c r="V30" s="6">
-        <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="X30" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.67500000000000004</v>
       </c>
     </row>
@@ -18759,62 +18759,62 @@
         <v>776</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="L31">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="S31" s="6">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="M31">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="T31" s="6">
+        <f t="shared" si="12"/>
+        <v>0.875</v>
+      </c>
+      <c r="U31" s="6">
+        <f t="shared" si="21"/>
+        <v>0.75</v>
+      </c>
+      <c r="V31" s="6">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="11"/>
-        <v>29</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="8"/>
-        <v>3000</v>
-      </c>
-      <c r="S31" s="6">
-        <f t="shared" si="1"/>
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="T31" s="6">
-        <f>L31/40</f>
         <v>0.875</v>
       </c>
-      <c r="U31" s="6">
-        <f>M31/40</f>
-        <v>0.75</v>
-      </c>
-      <c r="V31" s="6">
-        <f t="shared" si="10"/>
-        <v>0.875</v>
-      </c>
       <c r="W31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="X31" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.72499999999999998</v>
       </c>
     </row>
@@ -18838,62 +18838,62 @@
         <v>225</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3100</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L32">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="11"/>
+        <v>3100</v>
+      </c>
+      <c r="S32" s="6">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="M32">
+        <v>0.8</v>
+      </c>
+      <c r="T32" s="6">
+        <f t="shared" si="12"/>
+        <v>0.875</v>
+      </c>
+      <c r="U32" s="6">
+        <f t="shared" si="21"/>
+        <v>0.75</v>
+      </c>
+      <c r="V32" s="6">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="11"/>
-        <v>31</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="8"/>
-        <v>3100</v>
-      </c>
-      <c r="S32" s="6">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="T32" s="6">
-        <f>L32/40</f>
         <v>0.875</v>
       </c>
-      <c r="U32" s="6">
-        <f>M32/40</f>
-        <v>0.75</v>
-      </c>
-      <c r="V32" s="6">
-        <f t="shared" si="10"/>
-        <v>0.875</v>
-      </c>
       <c r="W32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="X32" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.77500000000000002</v>
       </c>
     </row>
@@ -18917,62 +18917,62 @@
         <v>2598</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3200</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="L33">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="18"/>
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="11"/>
+        <v>3200</v>
+      </c>
+      <c r="S33" s="6">
         <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="M33">
+        <v>0.8</v>
+      </c>
+      <c r="T33" s="6">
+        <f t="shared" si="12"/>
+        <v>0.875</v>
+      </c>
+      <c r="U33" s="6">
+        <f t="shared" si="21"/>
+        <v>0.75</v>
+      </c>
+      <c r="V33" s="6">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="8"/>
-        <v>3200</v>
-      </c>
-      <c r="S33" s="6">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="T33" s="6">
-        <f>L33/40</f>
-        <v>0.875</v>
-      </c>
-      <c r="U33" s="6">
-        <f>M33/40</f>
-        <v>0.75</v>
-      </c>
-      <c r="V33" s="6">
-        <f t="shared" si="10"/>
         <v>0.9</v>
       </c>
       <c r="W33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="X33" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.875</v>
       </c>
     </row>
@@ -18996,62 +18996,62 @@
         <v>3134</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3300</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="L34">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="11"/>
+        <v>3300</v>
+      </c>
+      <c r="S34" s="6">
         <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="M34">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="T34" s="6">
+        <f t="shared" si="12"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U34" s="6">
+        <f t="shared" si="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="V34" s="6">
         <f t="shared" si="14"/>
-        <v>32</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="8"/>
-        <v>3300</v>
-      </c>
-      <c r="S34" s="6">
-        <f t="shared" si="1"/>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="T34" s="6">
-        <f>L34/40</f>
         <v>0.92500000000000004</v>
       </c>
-      <c r="U34" s="6">
-        <f>M34/40</f>
-        <v>0.8</v>
-      </c>
-      <c r="V34" s="6">
-        <f t="shared" si="10"/>
-        <v>0.92500000000000004</v>
-      </c>
       <c r="W34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.85</v>
       </c>
       <c r="X34" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.875</v>
       </c>
     </row>
@@ -19075,62 +19075,62 @@
         <v>3116</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3400</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="L35">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="18"/>
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="11"/>
+        <v>3400</v>
+      </c>
+      <c r="S35" s="6">
         <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="M35">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="12"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U35" s="6">
+        <f t="shared" si="21"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="V35" s="6">
         <f t="shared" si="14"/>
-        <v>33</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="6"/>
-        <v>38</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="11"/>
-        <v>36</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="8"/>
-        <v>3400</v>
-      </c>
-      <c r="S35" s="6">
-        <f t="shared" si="1"/>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="T35" s="6">
-        <f>L35/40</f>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="U35" s="6">
-        <f>M35/40</f>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="V35" s="6">
-        <f t="shared" si="10"/>
         <v>0.95</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
     </row>
@@ -19154,62 +19154,62 @@
         <v>1662</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3500</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="L36">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="18"/>
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="15"/>
+        <v>36</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="11"/>
+        <v>3500</v>
+      </c>
+      <c r="S36" s="6">
         <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="M36">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" si="12"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="U36" s="6">
+        <f t="shared" si="21"/>
+        <v>0.85</v>
+      </c>
+      <c r="V36" s="6">
         <f t="shared" si="14"/>
-        <v>34</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="11"/>
-        <v>36</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="8"/>
-        <v>3500</v>
-      </c>
-      <c r="S36" s="6">
-        <f t="shared" si="1"/>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="T36" s="6">
-        <f>L36/40</f>
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="U36" s="6">
-        <f>M36/40</f>
-        <v>0.85</v>
-      </c>
-      <c r="V36" s="6">
-        <f t="shared" si="10"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
       <c r="X36" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
     </row>
@@ -19233,62 +19233,62 @@
         <v>770</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3600</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="L37">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="18"/>
+        <v>35</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="15"/>
+        <v>37</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="11"/>
+        <v>3600</v>
+      </c>
+      <c r="S37" s="6">
         <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="M37">
+        <v>0.875</v>
+      </c>
+      <c r="T37" s="6">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="U37" s="6">
+        <f t="shared" si="21"/>
+        <v>0.875</v>
+      </c>
+      <c r="V37" s="6">
         <f t="shared" si="14"/>
-        <v>35</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="11"/>
-        <v>37</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="8"/>
-        <v>3600</v>
-      </c>
-      <c r="S37" s="6">
-        <f t="shared" si="1"/>
-        <v>0.875</v>
-      </c>
-      <c r="T37" s="6">
-        <f>L37/40</f>
-        <v>0.95</v>
-      </c>
-      <c r="U37" s="6">
-        <f>M37/40</f>
-        <v>0.875</v>
-      </c>
-      <c r="V37" s="6">
-        <f t="shared" si="10"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="W37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.92500000000000004</v>
       </c>
       <c r="X37" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.92500000000000004</v>
       </c>
     </row>
@@ -19312,62 +19312,62 @@
         <v>2774</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3700</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L38">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="18"/>
+        <v>37</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="15"/>
+        <v>39</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="11"/>
+        <v>3700</v>
+      </c>
+      <c r="S38" s="6">
         <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="M38">
+        <v>0.9</v>
+      </c>
+      <c r="T38" s="6">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="U38" s="6">
+        <f t="shared" si="21"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="V38" s="6">
         <f t="shared" si="14"/>
-        <v>37</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="7"/>
-        <v>37</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="8"/>
-        <v>3700</v>
-      </c>
-      <c r="S38" s="6">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="T38" s="6">
-        <f>L38/40</f>
-        <v>0.95</v>
-      </c>
-      <c r="U38" s="6">
-        <f>M38/40</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="W38" s="6">
+        <f t="shared" si="5"/>
         <v>0.92500000000000004</v>
       </c>
-      <c r="V38" s="6">
-        <f t="shared" si="10"/>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="W38" s="6">
-        <f t="shared" si="2"/>
-        <v>0.92500000000000004</v>
-      </c>
       <c r="X38" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
@@ -19391,62 +19391,62 @@
         <v>2667</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3800</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L39">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="15"/>
+        <v>39</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="11"/>
+        <v>3800</v>
+      </c>
+      <c r="S39" s="6">
         <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="M39">
+        <v>0.9</v>
+      </c>
+      <c r="T39" s="6">
+        <f t="shared" si="12"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="U39" s="6">
+        <f t="shared" si="21"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="V39" s="6">
         <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="8"/>
-        <v>3800</v>
-      </c>
-      <c r="S39" s="6">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="T39" s="6">
-        <f>L39/40</f>
         <v>0.97499999999999998</v>
       </c>
-      <c r="U39" s="6">
-        <f>M39/40</f>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="V39" s="6">
-        <f t="shared" si="10"/>
-        <v>0.97499999999999998</v>
-      </c>
       <c r="W39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
       <c r="X39" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.97499999999999998</v>
       </c>
     </row>
@@ -19470,62 +19470,62 @@
         <v>879</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3900</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="L40">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="11"/>
+        <v>3900</v>
+      </c>
+      <c r="S40" s="6">
         <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="M40">
+        <v>0.9</v>
+      </c>
+      <c r="T40" s="6">
+        <f t="shared" si="12"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="U40" s="6">
+        <f t="shared" si="21"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="V40" s="6">
         <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="8"/>
-        <v>3900</v>
-      </c>
-      <c r="S40" s="6">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="T40" s="6">
-        <f>L40/40</f>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="U40" s="6">
-        <f>M40/40</f>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="V40" s="6">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="W40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.95</v>
       </c>
       <c r="X40" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -19549,62 +19549,62 @@
         <v>3040</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4000</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="L41">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="11"/>
+        <v>4000</v>
+      </c>
+      <c r="S41" s="6">
         <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="M41">
+        <v>0.95</v>
+      </c>
+      <c r="T41" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="6">
+        <f t="shared" si="21"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="V41" s="6">
         <f t="shared" si="14"/>
-        <v>39</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="8"/>
-        <v>4000</v>
-      </c>
-      <c r="S41" s="6">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="T41" s="6">
-        <f>L41/40</f>
         <v>1</v>
       </c>
-      <c r="U41" s="6">
-        <f>M41/40</f>
+      <c r="W41" s="6">
+        <f t="shared" si="5"/>
         <v>0.97499999999999998</v>
       </c>
-      <c r="V41" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="W41" s="6">
-        <f t="shared" si="2"/>
-        <v>0.97499999999999998</v>
-      </c>
       <c r="X41" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -19614,27 +19614,27 @@
         <v>4100</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="M42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="N42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="O42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="P42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="R42">
@@ -19642,85 +19642,85 @@
         <v>4100</v>
       </c>
       <c r="S42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T42" s="6">
-        <f>L42/40</f>
-        <v>1</v>
-      </c>
-      <c r="U42" s="6">
-        <f>M42/40</f>
-        <v>1</v>
-      </c>
-      <c r="V42" s="6">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="W42" s="6">
-        <f t="shared" si="2"/>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="X42" s="6">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
+      <c r="U42" s="6">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="V42" s="6">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="W42" s="6">
+        <f t="shared" si="5"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="X42" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4200</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L43">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="O43">
         <f t="shared" si="7"/>
         <v>40</v>
       </c>
+      <c r="M43">
+        <f t="shared" si="18"/>
+        <v>40</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
       <c r="P43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="R43">
-        <f t="shared" ref="R43" si="15">R42+100</f>
+        <f t="shared" ref="R43" si="22">R42+100</f>
         <v>4200</v>
       </c>
       <c r="S43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T43" s="6">
-        <f>L43/40</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="U43" s="6">
-        <f>M43/40</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V43" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="W43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X43" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
